--- a/Building Info/compare.xlsx
+++ b/Building Info/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6940" yWindow="460" windowWidth="12800" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="13760" yWindow="460" windowWidth="12800" windowHeight="16580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>Tower A</t>
   </si>
@@ -104,13 +104,59 @@
     <t>Floors</t>
   </si>
   <si>
-    <t>Price</t>
+    <t>Price Per Semester</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>3,350 to 3,550</t>
+  </si>
+  <si>
+    <t>$2450 - $3,350</t>
+  </si>
+  <si>
+    <t>$3,350 to $3,550</t>
+  </si>
+  <si>
+    <t>$2,850 to $3,050</t>
+  </si>
+  <si>
+    <t>$3,150 to $3450</t>
+  </si>
+  <si>
+    <t>$3,675 to $3,375</t>
+  </si>
+  <si>
+    <t>$3,650 to $3,850</t>
+  </si>
+  <si>
+    <t>$3,550 to $3,650</t>
+  </si>
+  <si>
+    <t>$3550 to $3,650</t>
+  </si>
+  <si>
+    <t>$3,550 to $3,800</t>
+  </si>
+  <si>
+    <t>$3,800 to $4,200</t>
+  </si>
+  <si>
+    <t>$3,750 to $3,950</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -140,8 +186,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,15 +533,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
@@ -495,7 +551,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>22</v>
@@ -510,113 +566,360 @@
         <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>232</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="2">
+        <v>3150</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>664</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4" s="2">
+        <v>3150</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <v>769</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5" s="2">
+        <v>3450</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>435</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>723</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="2">
+        <v>3900</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>135</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>205</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" s="2">
+        <v>3550</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>192</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>600</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11" s="2">
+        <v>3550</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>132</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>559</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>737</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <v>420</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>25</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <v>26</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <v>511</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="3">
+        <v>4300</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <v>651</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <v>197</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <v>102</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>416</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Building Info/compare.xlsx
+++ b/Building Info/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13760" yWindow="460" windowWidth="12800" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="15940" yWindow="0" windowWidth="12860" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
   <si>
     <t>Tower A</t>
   </si>
@@ -146,7 +146,7 @@
     <t>$3,750 to $3,950</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -536,17 +536,17 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -554,19 +554,19 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -576,15 +576,19 @@
       <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="1">
+        <v>232</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E2" s="1">
-        <v>232</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -593,15 +597,19 @@
       <c r="B3" s="2">
         <v>3150</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1">
+        <v>664</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E3" s="1">
-        <v>664</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -610,15 +618,19 @@
       <c r="B4" s="2">
         <v>3150</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1">
+        <v>769</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E4" s="1">
-        <v>769</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -627,15 +639,19 @@
       <c r="B5" s="2">
         <v>3450</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="1">
+        <v>435</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E5" s="1">
-        <v>435</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -644,15 +660,19 @@
       <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1">
+        <v>723</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E6" s="1">
-        <v>723</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -661,12 +681,18 @@
       <c r="B7" s="2">
         <v>3900</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1">
+        <v>135</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E7" s="1">
-        <v>135</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -676,12 +702,18 @@
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1">
+        <v>205</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E8" s="1">
-        <v>205</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -691,15 +723,19 @@
       <c r="B9" s="2">
         <v>3550</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1">
+        <v>192</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E9" s="1">
-        <v>192</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -708,15 +744,19 @@
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1">
+        <v>600</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E10" s="1">
-        <v>600</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -725,12 +765,18 @@
       <c r="B11" s="2">
         <v>3550</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1">
+        <v>132</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E11" s="1">
-        <v>132</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -740,15 +786,19 @@
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="1">
+        <v>559</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" s="1">
-        <v>559</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -757,15 +807,19 @@
       <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1">
+        <v>737</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E13" s="1">
-        <v>737</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -774,12 +828,18 @@
       <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="1">
+        <v>420</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E14" s="1">
-        <v>420</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -789,12 +849,18 @@
       <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -804,15 +870,19 @@
       <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="1">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E16" s="1">
-        <v>25</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -821,15 +891,19 @@
       <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E17" s="1">
-        <v>26</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -838,12 +912,18 @@
       <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="C18" s="1">
+        <v>511</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E18" s="1">
-        <v>511</v>
-      </c>
-      <c r="F18" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -853,14 +933,18 @@
       <c r="B19" s="3">
         <v>4300</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1">
+      <c r="C19" s="1">
         <v>651</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -870,14 +954,18 @@
       <c r="B20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1">
+      <c r="C20" s="1">
         <v>197</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -887,14 +975,18 @@
       <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1">
+      <c r="C21" s="1">
         <v>102</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -904,14 +996,18 @@
       <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1">
+      <c r="C22" s="1">
         <v>416</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
